--- a/Package/static/Sheets/bholesarkaar45@gmail.com.xlsx
+++ b/Package/static/Sheets/bholesarkaar45@gmail.com.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="87">
   <si>
     <t>ModuleName</t>
   </si>
@@ -122,70 +122,70 @@
     <t>What is Virtualization?</t>
   </si>
   <si>
+    <t>How virtual machines are managed?</t>
+  </si>
+  <si>
+    <t>Different types of Virtualizations</t>
+  </si>
+  <si>
+    <t>Networking</t>
+  </si>
+  <si>
+    <t>Network setup in virtual machines</t>
+  </si>
+  <si>
+    <t>Network setup in Virtualbox/KVM</t>
+  </si>
+  <si>
+    <t>Different types of network</t>
+  </si>
+  <si>
+    <t>Connecting virtual machine to a host network</t>
+  </si>
+  <si>
+    <t>How to connect virtualbox to local network</t>
+  </si>
+  <si>
+    <t>How to connect virtual machine to physical network</t>
+  </si>
+  <si>
+    <t>Docker</t>
+  </si>
+  <si>
+    <t>introduction to docker</t>
+  </si>
+  <si>
+    <t>installation of docker</t>
+  </si>
+  <si>
+    <t>docker hub,images,containers</t>
+  </si>
+  <si>
+    <t>docker commands</t>
+  </si>
+  <si>
+    <t>docker compose,dockerfile</t>
+  </si>
+  <si>
+    <t>docker swarm</t>
+  </si>
+  <si>
+    <t>docker network,docker volume</t>
+  </si>
+  <si>
+    <t>docker service</t>
+  </si>
+  <si>
+    <t>Kubernetes</t>
+  </si>
+  <si>
+    <t>introduction to kubernetes</t>
+  </si>
+  <si>
     <t>Completed</t>
   </si>
   <si>
-    <t>2022-01-11</t>
-  </si>
-  <si>
-    <t>How virtual machines are managed?</t>
-  </si>
-  <si>
-    <t>Different types of Virtualizations</t>
-  </si>
-  <si>
-    <t>Networking</t>
-  </si>
-  <si>
-    <t>Network setup in virtual machines</t>
-  </si>
-  <si>
-    <t>Network setup in Virtualbox/KVM</t>
-  </si>
-  <si>
-    <t>Different types of network</t>
-  </si>
-  <si>
-    <t>Connecting virtual machine to a host network</t>
-  </si>
-  <si>
-    <t>How to connect virtualbox to local network</t>
-  </si>
-  <si>
-    <t>How to connect virtual machine to physical network</t>
-  </si>
-  <si>
-    <t>Docker</t>
-  </si>
-  <si>
-    <t>introduction to docker</t>
-  </si>
-  <si>
-    <t>installation of docker</t>
-  </si>
-  <si>
-    <t>docker hub,images,containers</t>
-  </si>
-  <si>
-    <t>docker commands</t>
-  </si>
-  <si>
-    <t>docker compose,dockerfile</t>
-  </si>
-  <si>
-    <t>docker swarm</t>
-  </si>
-  <si>
-    <t>docker network,docker volume</t>
-  </si>
-  <si>
-    <t>docker service</t>
-  </si>
-  <si>
-    <t>Kubernetes</t>
-  </si>
-  <si>
-    <t>introduction to kubernetes</t>
+    <t>2022-01-14</t>
   </si>
   <si>
     <t>docker components</t>
@@ -814,7 +814,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:4">
       <c r="B17" t="s">
         <v>23</v>
       </c>
@@ -825,7 +825,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:4">
       <c r="A18" t="s">
         <v>24</v>
       </c>
@@ -839,7 +839,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:4">
       <c r="B19" t="s">
         <v>26</v>
       </c>
@@ -850,7 +850,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:4">
       <c r="B20" t="s">
         <v>27</v>
       </c>
@@ -861,7 +861,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:4">
       <c r="B21" t="s">
         <v>28</v>
       </c>
@@ -872,7 +872,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:4">
       <c r="B22" t="s">
         <v>29</v>
       </c>
@@ -883,7 +883,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:4">
       <c r="B23" t="s">
         <v>30</v>
       </c>
@@ -894,7 +894,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:4">
       <c r="B24" t="s">
         <v>31</v>
       </c>
@@ -905,7 +905,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:4">
       <c r="B25" t="s">
         <v>32</v>
       </c>
@@ -916,7 +916,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:4">
       <c r="A26" t="s">
         <v>33</v>
       </c>
@@ -927,224 +927,212 @@
         <v>3</v>
       </c>
       <c r="D26" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="B27" t="s">
         <v>35</v>
       </c>
-      <c r="E26" t="s">
+      <c r="C27">
+        <v>3</v>
+      </c>
+      <c r="D27" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="B28" t="s">
         <v>36</v>
       </c>
-      <c r="F26" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="B27" t="s">
+      <c r="C28">
+        <v>3</v>
+      </c>
+      <c r="D28" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" t="s">
         <v>37</v>
       </c>
-      <c r="C27">
-        <v>3</v>
-      </c>
-      <c r="D27" t="s">
-        <v>35</v>
-      </c>
-      <c r="E27" t="s">
-        <v>36</v>
-      </c>
-      <c r="F27" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="B28" t="s">
+      <c r="B29" t="s">
         <v>38</v>
       </c>
-      <c r="C28">
-        <v>3</v>
-      </c>
-      <c r="D28" t="s">
-        <v>35</v>
-      </c>
-      <c r="E28" t="s">
-        <v>36</v>
-      </c>
-      <c r="F28" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29" t="s">
+      <c r="C29">
+        <v>2</v>
+      </c>
+      <c r="D29" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="B30" t="s">
         <v>39</v>
       </c>
-      <c r="B29" t="s">
+      <c r="C30">
+        <v>2</v>
+      </c>
+      <c r="D30" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="B31" t="s">
         <v>40</v>
       </c>
-      <c r="C29">
-        <v>2</v>
-      </c>
-      <c r="D29" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="B30" t="s">
+      <c r="C31">
+        <v>2</v>
+      </c>
+      <c r="D31" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="B32" t="s">
         <v>41</v>
       </c>
-      <c r="C30">
-        <v>2</v>
-      </c>
-      <c r="D30" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="B31" t="s">
+      <c r="C32">
+        <v>3</v>
+      </c>
+      <c r="D32" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="B33" t="s">
         <v>42</v>
       </c>
-      <c r="C31">
-        <v>2</v>
-      </c>
-      <c r="D31" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="B32" t="s">
+      <c r="C33">
+        <v>4</v>
+      </c>
+      <c r="D33" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="B34" t="s">
         <v>43</v>
       </c>
-      <c r="C32">
-        <v>3</v>
-      </c>
-      <c r="D32" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="B33" t="s">
+      <c r="C34">
+        <v>2</v>
+      </c>
+      <c r="D34" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" t="s">
         <v>44</v>
       </c>
-      <c r="C33">
-        <v>4</v>
-      </c>
-      <c r="D33" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="B34" t="s">
+      <c r="B35" t="s">
         <v>45</v>
       </c>
-      <c r="C34">
-        <v>2</v>
-      </c>
-      <c r="D34" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35" t="s">
+      <c r="C35">
+        <v>2</v>
+      </c>
+      <c r="D35" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="B36" t="s">
         <v>46</v>
       </c>
-      <c r="B35" t="s">
+      <c r="C36">
+        <v>2</v>
+      </c>
+      <c r="D36" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="B37" t="s">
         <v>47</v>
       </c>
-      <c r="C35">
-        <v>2</v>
-      </c>
-      <c r="D35" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="B36" t="s">
+      <c r="C37">
+        <v>3</v>
+      </c>
+      <c r="D37" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="B38" t="s">
         <v>48</v>
       </c>
-      <c r="C36">
-        <v>2</v>
-      </c>
-      <c r="D36" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="B37" t="s">
+      <c r="C38">
+        <v>4</v>
+      </c>
+      <c r="D38" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="B39" t="s">
         <v>49</v>
       </c>
-      <c r="C37">
-        <v>3</v>
-      </c>
-      <c r="D37" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="B38" t="s">
+      <c r="C39">
+        <v>4</v>
+      </c>
+      <c r="D39" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="B40" t="s">
         <v>50</v>
       </c>
-      <c r="C38">
-        <v>4</v>
-      </c>
-      <c r="D38" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
-      <c r="B39" t="s">
+      <c r="C40">
+        <v>4</v>
+      </c>
+      <c r="D40" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="B41" t="s">
         <v>51</v>
       </c>
-      <c r="C39">
-        <v>4</v>
-      </c>
-      <c r="D39" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
-      <c r="B40" t="s">
+      <c r="C41">
+        <v>3</v>
+      </c>
+      <c r="D41" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="B42" t="s">
         <v>52</v>
       </c>
-      <c r="C40">
-        <v>4</v>
-      </c>
-      <c r="D40" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
-      <c r="B41" t="s">
+      <c r="C42">
+        <v>2</v>
+      </c>
+      <c r="D42" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" t="s">
         <v>53</v>
       </c>
-      <c r="C41">
-        <v>3</v>
-      </c>
-      <c r="D41" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
-      <c r="B42" t="s">
+      <c r="B43" t="s">
         <v>54</v>
       </c>
-      <c r="C42">
-        <v>2</v>
-      </c>
-      <c r="D42" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
-      <c r="A43" t="s">
+      <c r="C43">
+        <v>2</v>
+      </c>
+      <c r="D43" t="s">
         <v>55</v>
       </c>
-      <c r="B43" t="s">
+      <c r="E43" t="s">
         <v>56</v>
       </c>
-      <c r="C43">
-        <v>2</v>
-      </c>
-      <c r="D43" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+      <c r="F43" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="B44" t="s">
         <v>57</v>
       </c>
@@ -1152,10 +1140,16 @@
         <v>6</v>
       </c>
       <c r="D44" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>55</v>
+      </c>
+      <c r="E44" t="s">
+        <v>56</v>
+      </c>
+      <c r="F44" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="B45" t="s">
         <v>58</v>
       </c>
@@ -1163,10 +1157,16 @@
         <v>4</v>
       </c>
       <c r="D45" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
+        <v>55</v>
+      </c>
+      <c r="E45" t="s">
+        <v>56</v>
+      </c>
+      <c r="F45" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" t="s">
         <v>59</v>
       </c>
@@ -1180,7 +1180,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:6">
       <c r="B47" t="s">
         <v>61</v>
       </c>
@@ -1191,7 +1191,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:6">
       <c r="B48" t="s">
         <v>62</v>
       </c>
@@ -1381,7 +1381,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="65" spans="1:6">
+    <row r="65" spans="1:4">
       <c r="A65" t="s">
         <v>80</v>
       </c>
@@ -1395,7 +1395,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="66" spans="1:6">
+    <row r="66" spans="1:4">
       <c r="B66" s="1" t="s">
         <v>82</v>
       </c>
@@ -1406,7 +1406,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="67" spans="1:6">
+    <row r="67" spans="1:4">
       <c r="B67" s="1" t="s">
         <v>83</v>
       </c>
@@ -1417,7 +1417,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="68" spans="1:6">
+    <row r="68" spans="1:4">
       <c r="B68" s="1" t="s">
         <v>84</v>
       </c>
@@ -1428,7 +1428,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="69" spans="1:6">
+    <row r="69" spans="1:4">
       <c r="A69" t="s">
         <v>85</v>
       </c>
@@ -1439,13 +1439,7 @@
         <v>8</v>
       </c>
       <c r="D69" t="s">
-        <v>35</v>
-      </c>
-      <c r="E69" t="s">
-        <v>36</v>
-      </c>
-      <c r="F69" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
